--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Mmp13</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmp13</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4081046666666666</v>
+        <v>6.470400000000001</v>
       </c>
       <c r="H2">
-        <v>1.224314</v>
+        <v>19.4112</v>
       </c>
       <c r="I2">
-        <v>0.02621643016260981</v>
+        <v>0.3245654035270672</v>
       </c>
       <c r="J2">
-        <v>0.02621643016260981</v>
+        <v>0.3245654035270671</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>2.752558373069555</v>
+        <v>40.80134595840001</v>
       </c>
       <c r="R2">
-        <v>24.773025357626</v>
+        <v>367.2121136256</v>
       </c>
       <c r="S2">
-        <v>0.0002750819419635847</v>
+        <v>0.004401595381439742</v>
       </c>
       <c r="T2">
-        <v>0.0002750819419635847</v>
+        <v>0.004401595381439741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4081046666666666</v>
+        <v>6.470400000000001</v>
       </c>
       <c r="H3">
-        <v>1.224314</v>
+        <v>19.4112</v>
       </c>
       <c r="I3">
-        <v>0.02621643016260981</v>
+        <v>0.3245654035270672</v>
       </c>
       <c r="J3">
-        <v>0.02621643016260981</v>
+        <v>0.3245654035270671</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>74.49203137475088</v>
+        <v>1181.0529973696</v>
       </c>
       <c r="R3">
-        <v>670.428282372758</v>
+        <v>10629.4769763264</v>
       </c>
       <c r="S3">
-        <v>0.007444497036597795</v>
+        <v>0.1274104394437838</v>
       </c>
       <c r="T3">
-        <v>0.007444497036597796</v>
+        <v>0.1274104394437837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4081046666666666</v>
+        <v>6.470400000000001</v>
       </c>
       <c r="H4">
-        <v>1.224314</v>
+        <v>19.4112</v>
       </c>
       <c r="I4">
-        <v>0.02621643016260981</v>
+        <v>0.3245654035270672</v>
       </c>
       <c r="J4">
-        <v>0.02621643016260981</v>
+        <v>0.3245654035270671</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>101.6723049597002</v>
+        <v>824.3056212672001</v>
       </c>
       <c r="R4">
-        <v>915.0507446373019</v>
+        <v>7418.750591404801</v>
       </c>
       <c r="S4">
-        <v>0.01016080725693711</v>
+        <v>0.08892500309092266</v>
       </c>
       <c r="T4">
-        <v>0.01016080725693711</v>
+        <v>0.08892500309092265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4081046666666666</v>
+        <v>6.470400000000001</v>
       </c>
       <c r="H5">
-        <v>1.224314</v>
+        <v>19.4112</v>
       </c>
       <c r="I5">
-        <v>0.02621643016260981</v>
+        <v>0.3245654035270672</v>
       </c>
       <c r="J5">
-        <v>0.02621643016260981</v>
+        <v>0.3245654035270671</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>7.125687590192888</v>
+        <v>125.6810582272</v>
       </c>
       <c r="R5">
-        <v>64.131188311736</v>
+        <v>1131.1295240448</v>
       </c>
       <c r="S5">
-        <v>0.0007121185873163477</v>
+        <v>0.01355830677721584</v>
       </c>
       <c r="T5">
-        <v>0.0007121185873163477</v>
+        <v>0.01355830677721584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4081046666666666</v>
+        <v>6.470400000000001</v>
       </c>
       <c r="H6">
-        <v>1.224314</v>
+        <v>19.4112</v>
       </c>
       <c r="I6">
-        <v>0.02621643016260981</v>
+        <v>0.3245654035270672</v>
       </c>
       <c r="J6">
-        <v>0.02621643016260981</v>
+        <v>0.3245654035270671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>76.28744867770288</v>
+        <v>836.7738469760002</v>
       </c>
       <c r="R6">
-        <v>686.587038099326</v>
+        <v>7530.964622784</v>
       </c>
       <c r="S6">
-        <v>0.007623925339794974</v>
+        <v>0.0902700588337052</v>
       </c>
       <c r="T6">
-        <v>0.007623925339794974</v>
+        <v>0.09027005883370517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,14 +835,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.470400000000001</v>
+        <v>4.643796</v>
       </c>
       <c r="H7">
-        <v>19.4112</v>
+        <v>13.931388</v>
       </c>
       <c r="I7">
-        <v>0.4156551090426571</v>
+        <v>0.2329400844827801</v>
       </c>
       <c r="J7">
-        <v>0.4156551090426571</v>
+        <v>0.2329400844827801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>43.6411419712</v>
+        <v>29.283062431416</v>
       </c>
       <c r="R7">
-        <v>392.7702777408</v>
+        <v>263.547561882744</v>
       </c>
       <c r="S7">
-        <v>0.004361357128844019</v>
+        <v>0.003159018148174509</v>
       </c>
       <c r="T7">
-        <v>0.004361357128844019</v>
+        <v>0.003159018148174509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.470400000000001</v>
+        <v>4.643796</v>
       </c>
       <c r="H8">
-        <v>19.4112</v>
+        <v>13.931388</v>
       </c>
       <c r="I8">
-        <v>0.4156551090426571</v>
+        <v>0.2329400844827801</v>
       </c>
       <c r="J8">
-        <v>0.4156551090426571</v>
+        <v>0.2329400844827801</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
-        <v>1181.0529973696</v>
+        <v>847.6398962928041</v>
       </c>
       <c r="R8">
-        <v>10629.4769763264</v>
+        <v>7628.759066635236</v>
       </c>
       <c r="S8">
-        <v>0.1180306856548297</v>
+        <v>0.0914422739007303</v>
       </c>
       <c r="T8">
-        <v>0.1180306856548297</v>
+        <v>0.09144227390073029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.470400000000001</v>
+        <v>4.643796</v>
       </c>
       <c r="H9">
-        <v>19.4112</v>
+        <v>13.931388</v>
       </c>
       <c r="I9">
-        <v>0.4156551090426571</v>
+        <v>0.2329400844827801</v>
       </c>
       <c r="J9">
-        <v>0.4156551090426571</v>
+        <v>0.2329400844827801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>1611.9896089024</v>
+        <v>591.602860227828</v>
       </c>
       <c r="R9">
-        <v>14507.9064801216</v>
+        <v>5324.425742050453</v>
       </c>
       <c r="S9">
-        <v>0.1610971220012657</v>
+        <v>0.0638213361853385</v>
       </c>
       <c r="T9">
-        <v>0.1610971220012657</v>
+        <v>0.0638213361853385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.470400000000001</v>
+        <v>4.643796</v>
       </c>
       <c r="H10">
-        <v>19.4112</v>
+        <v>13.931388</v>
       </c>
       <c r="I10">
-        <v>0.4156551090426571</v>
+        <v>0.2329400844827801</v>
       </c>
       <c r="J10">
-        <v>0.4156551090426571</v>
+        <v>0.2329400844827801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>112.9760396032</v>
+        <v>90.201099695728</v>
       </c>
       <c r="R10">
-        <v>1016.7843564288</v>
+        <v>811.809897261552</v>
       </c>
       <c r="S10">
-        <v>0.0112904665977152</v>
+        <v>0.009730775652016537</v>
       </c>
       <c r="T10">
-        <v>0.0112904665977152</v>
+        <v>0.009730775652016535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.470400000000001</v>
+        <v>4.643796</v>
       </c>
       <c r="H11">
-        <v>19.4112</v>
+        <v>13.931388</v>
       </c>
       <c r="I11">
-        <v>0.4156551090426571</v>
+        <v>0.2329400844827801</v>
       </c>
       <c r="J11">
-        <v>0.4156551090426571</v>
+        <v>0.2329400844827801</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>1209.5189010112</v>
+        <v>600.55128639524</v>
       </c>
       <c r="R11">
-        <v>10885.6701091008</v>
+        <v>5404.96157755716</v>
       </c>
       <c r="S11">
-        <v>0.1208754776600024</v>
+        <v>0.06478668059652028</v>
       </c>
       <c r="T11">
-        <v>0.1208754776600024</v>
+        <v>0.06478668059652026</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>4.546900666666667</v>
+        <v>0.08877433333333333</v>
       </c>
       <c r="H12">
-        <v>13.640702</v>
+        <v>0.266323</v>
       </c>
       <c r="I12">
-        <v>0.2920905187329166</v>
+        <v>0.004453059675009227</v>
       </c>
       <c r="J12">
-        <v>0.2920905187329166</v>
+        <v>0.004453059675009226</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>30.66764613052422</v>
+        <v>0.5597972747526666</v>
       </c>
       <c r="R12">
-        <v>276.008815174718</v>
+        <v>5.038175472773999</v>
       </c>
       <c r="S12">
-        <v>0.003064827157009194</v>
+        <v>6.039019157863379E-05</v>
       </c>
       <c r="T12">
-        <v>0.003064827157009194</v>
+        <v>6.039019157863377E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>4.546900666666667</v>
+        <v>0.08877433333333333</v>
       </c>
       <c r="H13">
-        <v>13.640702</v>
+        <v>0.266323</v>
       </c>
       <c r="I13">
-        <v>0.2920905187329166</v>
+        <v>0.004453059675009227</v>
       </c>
       <c r="J13">
-        <v>0.2920905187329166</v>
+        <v>0.004453059675009226</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>829.9534280892217</v>
+        <v>16.20412841135344</v>
       </c>
       <c r="R13">
-        <v>7469.580852802995</v>
+        <v>145.837155702181</v>
       </c>
       <c r="S13">
-        <v>0.08294290975690356</v>
+        <v>0.001748079998350789</v>
       </c>
       <c r="T13">
-        <v>0.08294290975690358</v>
+        <v>0.001748079998350788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.546900666666667</v>
+        <v>0.08877433333333333</v>
       </c>
       <c r="H14">
-        <v>13.640702</v>
+        <v>0.266323</v>
       </c>
       <c r="I14">
-        <v>0.2920905187329166</v>
+        <v>0.004453059675009227</v>
       </c>
       <c r="J14">
-        <v>0.2920905187329166</v>
+        <v>0.004453059675009226</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>1132.782614270843</v>
+        <v>11.30952985764633</v>
       </c>
       <c r="R14">
-        <v>10195.04352843759</v>
+        <v>101.785768718817</v>
       </c>
       <c r="S14">
-        <v>0.1132066968696891</v>
+        <v>0.001220057162781476</v>
       </c>
       <c r="T14">
-        <v>0.1132066968696891</v>
+        <v>0.001220057162781476</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.546900666666667</v>
+        <v>0.08877433333333333</v>
       </c>
       <c r="H15">
-        <v>13.640702</v>
+        <v>0.266323</v>
       </c>
       <c r="I15">
-        <v>0.2920905187329166</v>
+        <v>0.004453059675009227</v>
       </c>
       <c r="J15">
-        <v>0.2920905187329166</v>
+        <v>0.004453059675009226</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>79.39089233882757</v>
+        <v>1.724352769032444</v>
       </c>
       <c r="R15">
-        <v>714.5180310494482</v>
+        <v>15.519174921292</v>
       </c>
       <c r="S15">
-        <v>0.007934073643071369</v>
+        <v>0.0001860209021507405</v>
       </c>
       <c r="T15">
-        <v>0.00793407364307137</v>
+        <v>0.0001860209021507404</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>4.546900666666667</v>
+        <v>0.08877433333333333</v>
       </c>
       <c r="H16">
-        <v>13.640702</v>
+        <v>0.266323</v>
       </c>
       <c r="I16">
-        <v>0.2920905187329166</v>
+        <v>0.004453059675009227</v>
       </c>
       <c r="J16">
-        <v>0.2920905187329166</v>
+        <v>0.004453059675009226</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>849.9570810697577</v>
+        <v>11.48059477251222</v>
       </c>
       <c r="R16">
-        <v>7649.613729627819</v>
+        <v>103.32535295261</v>
       </c>
       <c r="S16">
-        <v>0.08494201130624333</v>
+        <v>0.001238511420147588</v>
       </c>
       <c r="T16">
-        <v>0.08494201130624333</v>
+        <v>0.001238511420147588</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06106966666666666</v>
+        <v>8.732611</v>
       </c>
       <c r="H17">
-        <v>0.183209</v>
+        <v>26.197833</v>
       </c>
       <c r="I17">
-        <v>0.003923083419499884</v>
+        <v>0.4380414523151436</v>
       </c>
       <c r="J17">
-        <v>0.003923083419499884</v>
+        <v>0.4380414523151436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>0.4118987996312222</v>
+        <v>55.066500143906</v>
       </c>
       <c r="R17">
-        <v>3.707089196681</v>
+        <v>495.598501295154</v>
       </c>
       <c r="S17">
-        <v>4.116385788711587E-05</v>
+        <v>0.005940501397983105</v>
       </c>
       <c r="T17">
-        <v>4.116385788711588E-05</v>
+        <v>0.005940501397983104</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.06106966666666666</v>
+        <v>8.732611</v>
       </c>
       <c r="H18">
-        <v>0.183209</v>
+        <v>26.197833</v>
       </c>
       <c r="I18">
-        <v>0.003923083419499884</v>
+        <v>0.4380414523151436</v>
       </c>
       <c r="J18">
-        <v>0.003923083419499884</v>
+        <v>0.4380414523151436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>11.14714899620255</v>
+        <v>1593.978176992573</v>
       </c>
       <c r="R18">
-        <v>100.324340965823</v>
+        <v>14345.80359293315</v>
       </c>
       <c r="S18">
-        <v>0.001114010668487043</v>
+        <v>0.1719562631369962</v>
       </c>
       <c r="T18">
-        <v>0.001114010668487043</v>
+        <v>0.1719562631369962</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.06106966666666666</v>
+        <v>8.732611</v>
       </c>
       <c r="H19">
-        <v>0.183209</v>
+        <v>26.197833</v>
       </c>
       <c r="I19">
-        <v>0.003923083419499884</v>
+        <v>0.4380414523151436</v>
       </c>
       <c r="J19">
-        <v>0.003923083419499884</v>
+        <v>0.4380414523151436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>15.21446403403189</v>
+        <v>1112.503142872123</v>
       </c>
       <c r="R19">
-        <v>136.930176306287</v>
+        <v>10012.52828584911</v>
       </c>
       <c r="S19">
-        <v>0.001520485215995399</v>
+        <v>0.1200153715638639</v>
       </c>
       <c r="T19">
-        <v>0.001520485215995399</v>
+        <v>0.1200153715638639</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.06106966666666666</v>
+        <v>8.732611</v>
       </c>
       <c r="H20">
-        <v>0.183209</v>
+        <v>26.197833</v>
       </c>
       <c r="I20">
-        <v>0.003923083419499884</v>
+        <v>0.4380414523151436</v>
       </c>
       <c r="J20">
-        <v>0.003923083419499884</v>
+        <v>0.4380414523151436</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>1.066303332079556</v>
+        <v>169.6222477074813</v>
       </c>
       <c r="R20">
-        <v>9.596729988716</v>
+        <v>1526.600229367332</v>
       </c>
       <c r="S20">
-        <v>0.0001065629685388231</v>
+        <v>0.01829862433606726</v>
       </c>
       <c r="T20">
-        <v>0.0001065629685388232</v>
+        <v>0.01829862433606725</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.06106966666666666</v>
+        <v>8.732611</v>
       </c>
       <c r="H21">
-        <v>0.183209</v>
+        <v>26.197833</v>
       </c>
       <c r="I21">
-        <v>0.003923083419499884</v>
+        <v>0.4380414523151436</v>
       </c>
       <c r="J21">
-        <v>0.003923083419499884</v>
+        <v>0.4380414523151436</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>11.41581913201456</v>
+        <v>1129.330566984257</v>
       </c>
       <c r="R21">
-        <v>102.742372188131</v>
+        <v>10163.97510285831</v>
       </c>
       <c r="S21">
-        <v>0.001140860708591503</v>
+        <v>0.1218306918802332</v>
       </c>
       <c r="T21">
-        <v>0.001140860708591503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>4.080277</v>
-      </c>
-      <c r="H22">
-        <v>12.240831</v>
-      </c>
-      <c r="I22">
-        <v>0.2621148586423166</v>
-      </c>
-      <c r="J22">
-        <v>0.2621148586423167</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>6.744736333333333</v>
-      </c>
-      <c r="N22">
-        <v>20.234209</v>
-      </c>
-      <c r="O22">
-        <v>0.01049273071342527</v>
-      </c>
-      <c r="P22">
-        <v>0.01049273071342527</v>
-      </c>
-      <c r="Q22">
-        <v>27.52039253196433</v>
-      </c>
-      <c r="R22">
-        <v>247.683532787679</v>
-      </c>
-      <c r="S22">
-        <v>0.002750300627721359</v>
-      </c>
-      <c r="T22">
-        <v>0.00275030062772136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>4.080277</v>
-      </c>
-      <c r="H23">
-        <v>12.240831</v>
-      </c>
-      <c r="I23">
-        <v>0.2621148586423166</v>
-      </c>
-      <c r="J23">
-        <v>0.2621148586423167</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>182.5316823333334</v>
-      </c>
-      <c r="N23">
-        <v>547.595047</v>
-      </c>
-      <c r="O23">
-        <v>0.283963033503136</v>
-      </c>
-      <c r="P23">
-        <v>0.2839630335031361</v>
-      </c>
-      <c r="Q23">
-        <v>744.7798251960063</v>
-      </c>
-      <c r="R23">
-        <v>6703.018426764057</v>
-      </c>
-      <c r="S23">
-        <v>0.0744309303863179</v>
-      </c>
-      <c r="T23">
-        <v>0.07443093038631794</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>4.080277</v>
-      </c>
-      <c r="H24">
-        <v>12.240831</v>
-      </c>
-      <c r="I24">
-        <v>0.2621148586423166</v>
-      </c>
-      <c r="J24">
-        <v>0.2621148586423167</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>249.1329143333333</v>
-      </c>
-      <c r="N24">
-        <v>747.398743</v>
-      </c>
-      <c r="O24">
-        <v>0.3875740210972192</v>
-      </c>
-      <c r="P24">
-        <v>0.3875740210972192</v>
-      </c>
-      <c r="Q24">
-        <v>1016.53130029727</v>
-      </c>
-      <c r="R24">
-        <v>9148.781702675433</v>
-      </c>
-      <c r="S24">
-        <v>0.1015889097533318</v>
-      </c>
-      <c r="T24">
-        <v>0.1015889097533319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4.080277</v>
-      </c>
-      <c r="H25">
-        <v>12.240831</v>
-      </c>
-      <c r="I25">
-        <v>0.2621148586423166</v>
-      </c>
-      <c r="J25">
-        <v>0.2621148586423167</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>17.46044133333334</v>
-      </c>
-      <c r="N25">
-        <v>52.38132400000001</v>
-      </c>
-      <c r="O25">
-        <v>0.02716306464684043</v>
-      </c>
-      <c r="P25">
-        <v>0.02716306464684043</v>
-      </c>
-      <c r="Q25">
-        <v>71.24343718224934</v>
-      </c>
-      <c r="R25">
-        <v>641.1909346402441</v>
-      </c>
-      <c r="S25">
-        <v>0.007119842850198686</v>
-      </c>
-      <c r="T25">
-        <v>0.007119842850198689</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>4.080277</v>
-      </c>
-      <c r="H26">
-        <v>12.240831</v>
-      </c>
-      <c r="I26">
-        <v>0.2621148586423166</v>
-      </c>
-      <c r="J26">
-        <v>0.2621148586423167</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>186.9310863333334</v>
-      </c>
-      <c r="N26">
-        <v>560.793259</v>
-      </c>
-      <c r="O26">
-        <v>0.2908071500393791</v>
-      </c>
-      <c r="P26">
-        <v>0.2908071500393791</v>
-      </c>
-      <c r="Q26">
-        <v>762.7306121509143</v>
-      </c>
-      <c r="R26">
-        <v>6864.575509358229</v>
-      </c>
-      <c r="S26">
-        <v>0.0762248750247468</v>
-      </c>
-      <c r="T26">
-        <v>0.07622487502474681</v>
+        <v>0.1218306918802332</v>
       </c>
     </row>
   </sheetData>
